--- a/CBI310 practical/Reporting_template.xlsx
+++ b/CBI310 practical/Reporting_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>CLB321 Report on fermentation to be shared with 3 groups</t>
   </si>
@@ -53,30 +53,15 @@
     <t>Ethanol conc</t>
   </si>
   <si>
-    <t>Biomass conc</t>
-  </si>
-  <si>
     <t>time (min)</t>
   </si>
   <si>
-    <t>volume displaced (mL)</t>
-  </si>
-  <si>
     <t>CO2 rate (intant) mL/min</t>
   </si>
   <si>
-    <t>Biomass conc * (g/L)</t>
-  </si>
-  <si>
     <t>* Only 3 biomass measurements at dedicated times</t>
   </si>
   <si>
-    <t>100*</t>
-  </si>
-  <si>
-    <t>* You can choose your own time increments upto 100 minutes</t>
-  </si>
-  <si>
     <t>Experiment nr.</t>
   </si>
   <si>
@@ -84,6 +69,18 @@
   </si>
   <si>
     <t>Initials (to be used as marker in analysis)</t>
+  </si>
+  <si>
+    <t>Absorbance reading</t>
+  </si>
+  <si>
+    <t>90*</t>
+  </si>
+  <si>
+    <t>* You can choose your own time increments upto 90 minutes. Ensure proper volume corrections when refilling the pipettte</t>
+  </si>
+  <si>
+    <t>acc volume displaced (mL)</t>
   </si>
 </sst>
 </file>
@@ -330,15 +327,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +353,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,13 +654,15 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
@@ -684,17 +683,17 @@
     </row>
     <row r="3" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -725,308 +724,306 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="I13" s="14" t="s">
+      <c r="F13" s="10"/>
+      <c r="I13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="I14" s="14" t="s">
+      <c r="F14" s="10"/>
+      <c r="I14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="3:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="L17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="12">
+        <v>50</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12">
+        <v>90</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12">
+        <v>120</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12">
+        <v>150</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="17"/>
-      <c r="D18" s="15">
-        <v>50</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="15">
-        <v>90</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="17"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="13"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="15">
-        <v>120</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="17"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="13"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="17"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="13"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="15">
-        <v>150</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="13"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="17"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="13"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="17"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="13"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="13"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="13"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="21"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="23"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="20"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/CBI310 practical/Reporting_template.xlsx
+++ b/CBI310 practical/Reporting_template.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\1_CLB\1_LAB3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willienicol/Dropbox/CLB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="30840" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>CLB321 Report on fermentation to be shared with 3 groups</t>
   </si>
@@ -81,6 +87,12 @@
   </si>
   <si>
     <t>acc volume displaced (mL)</t>
+  </si>
+  <si>
+    <t>Absorbance reading (30 min)</t>
+  </si>
+  <si>
+    <t>Absorbance reading (90 min)</t>
   </si>
 </sst>
 </file>
@@ -162,26 +174,26 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -190,7 +202,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -198,17 +210,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -218,7 +230,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -226,27 +238,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,31 +267,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -287,23 +299,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,14 +686,14 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -696,7 +708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="26"/>
@@ -706,7 +718,7 @@
       <c r="H4" s="28"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,15 +727,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
       <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="23" t="s">
         <v>4</v>
       </c>
@@ -740,7 +752,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -751,7 +763,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -770,7 +782,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
@@ -789,9 +801,9 @@
       <c r="L14" s="13"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
@@ -802,9 +814,11 @@
       <c r="L15" s="13"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="10"/>
       <c r="I16" s="14"/>
@@ -813,56 +827,56 @@
       <c r="L16" s="13"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="10"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="3:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="12">
-        <v>50</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
+      <c r="E18" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="10"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="12">
-        <v>90</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="J18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="12">
+        <v>50</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12">
+        <v>90</v>
+      </c>
       <c r="K19" s="12"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="14"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -873,31 +887,31 @@
       <c r="L20" s="16"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="10"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="12">
-        <v>120</v>
-      </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="10"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12">
+        <v>120</v>
+      </c>
       <c r="K22" s="12"/>
-      <c r="L22" s="16"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -908,87 +922,83 @@
       <c r="L23" s="16"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="10"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="12">
-        <v>150</v>
-      </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="14"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="10"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="J25" s="12">
+        <v>150</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I26" s="14"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" s="14"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="14"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="14"/>
-      <c r="D30" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="H30" s="13"/>
@@ -999,20 +1009,26 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="18"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="20"/>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31" s="14"/>
+      <c r="D31" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="10"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="18"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -1021,8 +1037,17 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1033,5 +1058,6 @@
     <mergeCell ref="D4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>